--- a/Questionnaires/IPQ_Block1.xlsx
+++ b/Questionnaires/IPQ_Block1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sowmya\QOE_CWI\Selected_PID_data\Post_Questionnaire\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sowmya\QOE_CWI\RCQoEA_Github\RCQoEA-360VR-Dataset\Questionnaires\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95FD31A7-EE33-4F44-B192-DD867401AF73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4BA7019-AA4B-4E35-A4B0-7D61258FDB9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="19320" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IPQ_Block1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>IPQ Presence Questionnaire Block1</t>
   </si>
@@ -90,48 +90,9 @@
     <t>P32</t>
   </si>
   <si>
-    <t>P34</t>
-  </si>
-  <si>
-    <t>P36</t>
-  </si>
-  <si>
-    <t>P37</t>
-  </si>
-  <si>
-    <t>P38</t>
-  </si>
-  <si>
-    <t>P39</t>
-  </si>
-  <si>
-    <t>P41</t>
-  </si>
-  <si>
-    <t>P42</t>
-  </si>
-  <si>
-    <t>P44</t>
-  </si>
-  <si>
-    <t>P46</t>
-  </si>
-  <si>
-    <t>P47</t>
-  </si>
-  <si>
-    <t>P48</t>
-  </si>
-  <si>
-    <t>P49</t>
-  </si>
-  <si>
     <t>Participant_ID</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>IPQ_1</t>
   </si>
   <si>
@@ -172,6 +133,42 @@
   </si>
   <si>
     <t>IPQ_14</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>P6</t>
+  </si>
+  <si>
+    <t>P9</t>
+  </si>
+  <si>
+    <t>P13</t>
+  </si>
+  <si>
+    <t>P14</t>
+  </si>
+  <si>
+    <t>P16</t>
+  </si>
+  <si>
+    <t>P17</t>
+  </si>
+  <si>
+    <t>P25</t>
+  </si>
+  <si>
+    <t>P28</t>
+  </si>
+  <si>
+    <t>P30</t>
   </si>
 </sst>
 </file>
@@ -233,13 +230,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -520,20 +515,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P34"/>
+  <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.46484375" customWidth="1"/>
-    <col min="2" max="2" width="12.9296875" customWidth="1"/>
+    <col min="1" max="1" width="12.9296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
@@ -550,264 +544,248 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-    </row>
-    <row r="2" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="3" t="s">
+    </row>
+    <row r="2" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="O2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>-1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>-2</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>-2</v>
+      </c>
+      <c r="N3">
+        <v>-1</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>-2</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>-1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>-2</v>
+      </c>
+      <c r="N4">
+        <v>-2</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3">
+      <c r="B5">
         <v>-1</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>-2</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>-2</v>
-      </c>
-      <c r="O3">
-        <v>-1</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>-2</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>-1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="N4">
-        <v>-2</v>
-      </c>
-      <c r="O4">
-        <v>-2</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>3</v>
       </c>
       <c r="C5">
         <v>-1</v>
       </c>
       <c r="D5">
+        <v>-2</v>
+      </c>
+      <c r="E5">
+        <v>-2</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>-2</v>
+      </c>
+      <c r="H5">
         <v>-1</v>
       </c>
-      <c r="E5">
-        <v>-2</v>
-      </c>
-      <c r="F5">
-        <v>-2</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>-2</v>
-      </c>
       <c r="I5">
+        <v>-2</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>-2</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>-2</v>
+      </c>
+      <c r="N5">
+        <v>3</v>
+      </c>
+      <c r="O5">
         <v>-1</v>
       </c>
-      <c r="J5">
-        <v>-2</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>-2</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-      <c r="N5">
-        <v>-2</v>
-      </c>
-      <c r="O5">
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6">
+        <v>-3</v>
+      </c>
+      <c r="C6">
+        <v>-1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>-2</v>
+      </c>
+      <c r="H6">
         <v>3</v>
       </c>
-      <c r="P5">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6">
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>-2</v>
+      </c>
+      <c r="M6">
         <v>-3</v>
       </c>
-      <c r="D6">
-        <v>-1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-      <c r="H6">
-        <v>-2</v>
-      </c>
-      <c r="I6">
-        <v>3</v>
-      </c>
-      <c r="J6">
-        <v>2</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>2</v>
-      </c>
-      <c r="M6">
-        <v>-2</v>
-      </c>
       <c r="N6">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="O6">
-        <v>-2</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>5</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -825,289 +803,205 @@
         <v>2</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
         <v>0</v>
-      </c>
-      <c r="J7">
-        <v>2</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>2</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="O7">
-        <v>-2</v>
-      </c>
-      <c r="P7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8">
+        <v>-3</v>
+      </c>
+      <c r="C8">
+        <v>-1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>-2</v>
+      </c>
+      <c r="F8">
+        <v>-1</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>-3</v>
+      </c>
+      <c r="L8">
+        <v>-2</v>
+      </c>
+      <c r="M8">
+        <v>-2</v>
+      </c>
+      <c r="N8">
+        <v>3</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8">
-        <v>-3</v>
-      </c>
-      <c r="D8">
-        <v>-1</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>-2</v>
-      </c>
-      <c r="G8">
-        <v>-1</v>
-      </c>
-      <c r="H8">
-        <v>2</v>
-      </c>
-      <c r="I8">
-        <v>2</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>-3</v>
-      </c>
-      <c r="M8">
-        <v>-2</v>
-      </c>
-      <c r="N8">
-        <v>-2</v>
-      </c>
-      <c r="O8">
-        <v>3</v>
-      </c>
-      <c r="P8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A9">
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A10">
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A11">
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A12">
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A13">
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A14">
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A15">
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A16">
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A17">
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A18">
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A19">
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A20">
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A21">
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A22">
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
         <v>20</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A23">
-        <v>21</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A24">
-        <v>22</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A25">
-        <v>23</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A26">
-        <v>24</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A27">
-        <v>25</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A28">
-        <v>26</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A29">
-        <v>27</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A30">
-        <v>28</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A31">
-        <v>29</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A32">
-        <v>30</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A33">
-        <v>31</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A34">
-        <v>32</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
